--- a/task3/results/Excel/DistributionAccessesPerDay.xlsx
+++ b/task3/results/Excel/DistributionAccessesPerDay.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\Programmieren\00_hochschule\BigData\task3\results\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C35C1C4-E217-4652-9047-C6AD0AB7AD90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5B3C96-92D0-4FDF-8C31-135623913003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{E84A519C-BFD7-406D-95CC-768A87298588}"/>
   </bookViews>
@@ -35,88 +35,88 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
-    <t>SATURDAY, 1.</t>
-  </si>
-  <si>
-    <t>SUNDAY, 2.</t>
-  </si>
-  <si>
-    <t>MONDAY, 3.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUESDAY, 4. </t>
-  </si>
-  <si>
-    <t>WEDNESDAY, 5.</t>
-  </si>
-  <si>
-    <t>THURSDAY, 6.</t>
-  </si>
-  <si>
-    <t>FRIDAY, 7.</t>
-  </si>
-  <si>
-    <t>SATURDAY, 8.</t>
-  </si>
-  <si>
-    <t>SUNDAY, 9.</t>
-  </si>
-  <si>
-    <t>MONDAY, 10.</t>
-  </si>
-  <si>
-    <t>TUESDAY, 11.</t>
-  </si>
-  <si>
-    <t>WEDNESDAY, 12.</t>
-  </si>
-  <si>
-    <t>THURSDAY, 13.</t>
-  </si>
-  <si>
-    <t>FRIDAY, 14.</t>
-  </si>
-  <si>
-    <t>SATURDAY, 15.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUNDAY, 16. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONDAY, 17.  </t>
-  </si>
-  <si>
-    <t>TUESDAY, 18.</t>
-  </si>
-  <si>
-    <t>WEDNESDAY, 19.</t>
-  </si>
-  <si>
-    <t>THURSDAY, 20.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRIDAY, 21.  </t>
-  </si>
-  <si>
-    <t>SATURDAY, 22.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUNDAY, 23. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONDAY, 24.  </t>
-  </si>
-  <si>
-    <t>TUESDAY, 25.</t>
-  </si>
-  <si>
-    <t>WEDNESDAY, 26.</t>
-  </si>
-  <si>
-    <t>THURSDAY, 27.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRIDAY, 28.   </t>
+    <t>10 (mo)</t>
+  </si>
+  <si>
+    <t>11 (tu)</t>
+  </si>
+  <si>
+    <t>12 (we)</t>
+  </si>
+  <si>
+    <t>13 (th)</t>
+  </si>
+  <si>
+    <t>14 (fr)</t>
+  </si>
+  <si>
+    <t>15 (sa)</t>
+  </si>
+  <si>
+    <t>16 (su)</t>
+  </si>
+  <si>
+    <t>17 (mo)</t>
+  </si>
+  <si>
+    <t>18 (tu)</t>
+  </si>
+  <si>
+    <t>19 (we)</t>
+  </si>
+  <si>
+    <t>20 (th)</t>
+  </si>
+  <si>
+    <t>21 (fr)</t>
+  </si>
+  <si>
+    <t>22 (sa)</t>
+  </si>
+  <si>
+    <t>23 (su)</t>
+  </si>
+  <si>
+    <t>24 (mo)</t>
+  </si>
+  <si>
+    <t>25 (tu)</t>
+  </si>
+  <si>
+    <t>26 (we)</t>
+  </si>
+  <si>
+    <t>27 (th)</t>
+  </si>
+  <si>
+    <t>28 (fr)</t>
+  </si>
+  <si>
+    <t>01 (sa)</t>
+  </si>
+  <si>
+    <t>02 (su)</t>
+  </si>
+  <si>
+    <t>03 (mo)</t>
+  </si>
+  <si>
+    <t>04 (tu)</t>
+  </si>
+  <si>
+    <t>05 (we)</t>
+  </si>
+  <si>
+    <t>06 (th)</t>
+  </si>
+  <si>
+    <t>07 (fr)</t>
+  </si>
+  <si>
+    <t>08 (sa)</t>
+  </si>
+  <si>
+    <t>09 (su)</t>
   </si>
 </sst>
 </file>
@@ -132,8 +132,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FFA9B7C6"/>
+      <sz val="11"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -215,7 +214,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Accesses Per Day</a:t>
+              <a:t>Tägliche Zugriffe</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -299,6 +298,7 @@
                 <a:endParaRPr lang="LID4096"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -332,88 +332,88 @@
               <c:strCache>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>SATURDAY, 1.</c:v>
+                  <c:v>01 (sa)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>SUNDAY, 2.</c:v>
+                  <c:v>02 (su)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MONDAY, 3.</c:v>
+                  <c:v>03 (mo)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>TUESDAY, 4. </c:v>
+                  <c:v>04 (tu)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>WEDNESDAY, 5.</c:v>
+                  <c:v>05 (we)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>THURSDAY, 6.</c:v>
+                  <c:v>06 (th)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>FRIDAY, 7.</c:v>
+                  <c:v>07 (fr)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>SATURDAY, 8.</c:v>
+                  <c:v>08 (sa)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>SUNDAY, 9.</c:v>
+                  <c:v>09 (su)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>MONDAY, 10.</c:v>
+                  <c:v>10 (mo)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>TUESDAY, 11.</c:v>
+                  <c:v>11 (tu)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>WEDNESDAY, 12.</c:v>
+                  <c:v>12 (we)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>THURSDAY, 13.</c:v>
+                  <c:v>13 (th)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>FRIDAY, 14.</c:v>
+                  <c:v>14 (fr)</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>SATURDAY, 15.</c:v>
+                  <c:v>15 (sa)</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>SUNDAY, 16. </c:v>
+                  <c:v>16 (su)</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>MONDAY, 17.  </c:v>
+                  <c:v>17 (mo)</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>TUESDAY, 18.</c:v>
+                  <c:v>18 (tu)</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>WEDNESDAY, 19.</c:v>
+                  <c:v>19 (we)</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>THURSDAY, 20.</c:v>
+                  <c:v>20 (th)</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>FRIDAY, 21.  </c:v>
+                  <c:v>21 (fr)</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>SATURDAY, 22.</c:v>
+                  <c:v>22 (sa)</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>SUNDAY, 23. </c:v>
+                  <c:v>23 (su)</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>MONDAY, 24.  </c:v>
+                  <c:v>24 (mo)</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>TUESDAY, 25.</c:v>
+                  <c:v>25 (tu)</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>WEDNESDAY, 26.</c:v>
+                  <c:v>26 (we)</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>THURSDAY, 27.</c:v>
+                  <c:v>27 (th)</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>FRIDAY, 28.   </c:v>
+                  <c:v>28 (fr)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -513,13 +513,14 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AC61-4BCD-9CC8-CBFA4ED427EA}"/>
+              <c16:uniqueId val="{00000000-6466-4E70-B405-86AFD0218F97}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -527,11 +528,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1275527343"/>
-        <c:axId val="1590759295"/>
+        <c:axId val="438770288"/>
+        <c:axId val="646183696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1275527343"/>
+        <c:axId val="438770288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -555,7 +556,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -574,7 +575,7 @@
             <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1590759295"/>
+        <c:crossAx val="646183696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -582,7 +583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1590759295"/>
+        <c:axId val="646183696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -603,7 +604,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -633,7 +634,7 @@
             <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1275527343"/>
+        <c:crossAx val="438770288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1237,22 +1238,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>464342</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>69056</xdr:rowOff>
+      <xdr:colOff>464341</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>90488</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2">
+        <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B3E95BA-164E-4108-8CA2-C17F46BCC3B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2461DF-DAB6-46C4-B696-3788E667A28B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1573,19 +1574,14 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="18.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.73046875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1">
         <v>64714</v>
@@ -1593,7 +1589,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>60265</v>
@@ -1601,7 +1597,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>89584</v>
@@ -1609,7 +1605,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1">
         <v>70452</v>
@@ -1617,7 +1613,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1">
         <v>94575</v>
@@ -1625,7 +1621,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1">
         <v>100960</v>
@@ -1633,7 +1629,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1">
         <v>87233</v>
@@ -1641,7 +1637,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1">
         <v>38867</v>
@@ -1649,7 +1645,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
         <v>35272</v>
@@ -1657,7 +1653,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1">
         <v>72860</v>
@@ -1665,7 +1661,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>80407</v>
@@ -1673,7 +1669,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
         <v>92536</v>
@@ -1681,7 +1677,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1">
         <v>134203</v>
@@ -1689,7 +1685,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1">
         <v>84103</v>
@@ -1697,7 +1693,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1">
         <v>45532</v>
@@ -1705,7 +1701,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1">
         <v>47854</v>
@@ -1713,7 +1709,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1">
         <v>74981</v>
@@ -1721,7 +1717,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1">
         <v>64282</v>
@@ -1729,7 +1725,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1">
         <v>72738</v>
@@ -1737,7 +1733,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1">
         <v>66593</v>
@@ -1745,7 +1741,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1">
         <v>64629</v>
@@ -1753,7 +1749,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1">
         <v>35267</v>
@@ -1761,7 +1757,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1">
         <v>39199</v>
@@ -1769,7 +1765,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1">
         <v>64259</v>
@@ -1777,7 +1773,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1">
         <v>62699</v>
@@ -1785,7 +1781,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B26" s="1">
         <v>58849</v>
@@ -1793,7 +1789,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1">
         <v>61680</v>
@@ -1801,7 +1797,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1">
         <v>27121</v>
